--- a/Reports/MarketBeatRank/2019/T_INV19_BASE/ADES.xlsx
+++ b/Reports/MarketBeatRank/2019/T_INV19_BASE/ADES.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5343" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15486" uniqueCount="56">
   <si>
     <t>Apr_11</t>
   </si>
@@ -153,6 +153,33 @@
   </si>
   <si>
     <t>Jun_09</t>
+  </si>
+  <si>
+    <t>Jun_16</t>
+  </si>
+  <si>
+    <t>Jun_24</t>
+  </si>
+  <si>
+    <t>Jun_30</t>
+  </si>
+  <si>
+    <t>Jul_07</t>
+  </si>
+  <si>
+    <t>Jul_17</t>
+  </si>
+  <si>
+    <t>Jul_23</t>
+  </si>
+  <si>
+    <t>Aug_04</t>
+  </si>
+  <si>
+    <t>Aug_25</t>
+  </si>
+  <si>
+    <t>Sep_08</t>
   </si>
 </sst>
 </file>
@@ -189,7 +216,295 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="373">
+  <cellXfs count="661">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -586,47 +901,83 @@
     <col min="11" max="11" customWidth="true" width="8.0" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="8.0" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -673,6 +1024,33 @@
       <c r="N2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -717,6 +1095,33 @@
       <c r="N3" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -761,6 +1166,33 @@
       <c r="N4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -805,6 +1237,33 @@
       <c r="N5" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -849,6 +1308,33 @@
       <c r="N6" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -893,6 +1379,33 @@
       <c r="N7" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -937,6 +1450,33 @@
       <c r="N8" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -981,6 +1521,33 @@
       <c r="N9" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1025,6 +1592,33 @@
       <c r="N10" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1069,6 +1663,33 @@
       <c r="N11" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1113,6 +1734,33 @@
       <c r="N12" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1157,6 +1805,33 @@
       <c r="N13" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1201,6 +1876,33 @@
       <c r="N14" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1245,6 +1947,33 @@
       <c r="N15" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1289,6 +2018,33 @@
       <c r="N16" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1333,6 +2089,33 @@
       <c r="N17" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1377,6 +2160,33 @@
       <c r="N18" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1421,6 +2231,33 @@
       <c r="N19" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1465,6 +2302,33 @@
       <c r="N20" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1509,6 +2373,33 @@
       <c r="N21" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1553,6 +2444,33 @@
       <c r="N22" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1597,6 +2515,33 @@
       <c r="N23" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1641,6 +2586,33 @@
       <c r="N24" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1685,6 +2657,33 @@
       <c r="N25" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -1729,6 +2728,33 @@
       <c r="N26" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W26" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1773,6 +2799,33 @@
       <c r="N27" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W27" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -1817,6 +2870,33 @@
       <c r="N28" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W28" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -1861,6 +2941,33 @@
       <c r="N29" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W29" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -1905,6 +3012,33 @@
       <c r="N30" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W30" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -1949,6 +3083,33 @@
       <c r="N31" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="O31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W31" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -1972,6 +3133,33 @@
       <c r="G32" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="H32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -1993,6 +3181,33 @@
         <v>2</v>
       </c>
       <c r="G33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="0" t="s">
         <v>2</v>
       </c>
     </row>
